--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1413309.359601516</v>
+        <v>1410139.072110044</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31965533.67541051</v>
+        <v>31965533.67541049</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4185889.206642269</v>
+        <v>4185889.20664227</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>141.5781214151867</v>
       </c>
       <c r="F11" t="n">
-        <v>223.7691168685049</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>143.3999911908438</v>
+        <v>59.7220489330736</v>
       </c>
       <c r="T13" t="n">
-        <v>239.9271657823968</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>159.9244332288168</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>324.5603895283145</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>198.5353819385598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.55597978948958</v>
       </c>
       <c r="H15" t="n">
-        <v>31.89934644498295</v>
+        <v>31.89934644498296</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.70587412348771</v>
+        <v>44.70587412348772</v>
       </c>
       <c r="T15" t="n">
         <v>124.9458788810276</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>120.641015827266</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>110.7293751319727</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.9271657823968</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.1965477867219</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>43.10424895726235</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.9394169664673</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>154.8501904227766</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.9271657823968</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>4.518667935080627</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>43.10424895726235</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>110.3046309792795</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>15.55408832818727</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T23" t="n">
-        <v>191.3295765652896</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4842593842947</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>128.2837823507415</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.3931634968435</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8874518549281</v>
+        <v>25.77726116952439</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2620,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>377.0032243750971</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H29" t="n">
-        <v>267.5715797715652</v>
+        <v>124.7407511019351</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.8874518549281</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>22.72148672613481</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T32" t="n">
         <v>209.8874518549281</v>
@@ -3088,10 +3088,10 @@
         <v>256.4842593842947</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>319.2032305388904</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3271,19 +3271,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>57.59020756406801</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>215.7210726713998</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>152.0745197329394</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>239.9271657823968</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>250.1063143192958</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>207.4721950518979</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.561099664736</v>
+        <v>374.846032669872</v>
       </c>
       <c r="H38" t="n">
         <v>267.5715797715652</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4842593842947</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.1177378005102</v>
+        <v>152.0745197329394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.9271657823968</v>
       </c>
       <c r="U40" t="n">
         <v>275.6040730435755</v>
@@ -3723,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>71.0294158672736</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>50.1897849508389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>174.4726930121853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>57.84024818565543</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.1177378005102</v>
+        <v>20.84079158999309</v>
       </c>
       <c r="H43" t="n">
         <v>131.2337281429463</v>
       </c>
       <c r="I43" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.9271657823968</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4842593842947</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>398.5496376048973</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.406829006500494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>8.674528542096464</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>32.53305157715116</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.9271657823968</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>271.8912471668464</v>
+        <v>1462.478963608391</v>
       </c>
       <c r="C11" t="n">
-        <v>271.8912471668464</v>
+        <v>1024.336490791814</v>
       </c>
       <c r="D11" t="n">
-        <v>271.8912471668464</v>
+        <v>588.4267059662584</v>
       </c>
       <c r="E11" t="n">
-        <v>271.8912471668464</v>
+        <v>445.4185025165748</v>
       </c>
       <c r="F11" t="n">
-        <v>45.86183618855861</v>
+        <v>445.4185025165748</v>
       </c>
       <c r="G11" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H11" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I11" t="n">
-        <v>115.0223243057314</v>
+        <v>115.0223243057315</v>
       </c>
       <c r="J11" t="n">
-        <v>268.1792013766521</v>
+        <v>268.1792013766522</v>
       </c>
       <c r="K11" t="n">
-        <v>497.7216582812913</v>
+        <v>497.7216582812914</v>
       </c>
       <c r="L11" t="n">
         <v>782.489373603983</v>
@@ -5056,37 +5056,37 @@
         <v>1421.334387037893</v>
       </c>
       <c r="O11" t="n">
-        <v>1725.37669424811</v>
+        <v>1725.376694248109</v>
       </c>
       <c r="P11" t="n">
         <v>1984.869769184644</v>
       </c>
       <c r="Q11" t="n">
-        <v>2179.738261607713</v>
+        <v>2179.738261607712</v>
       </c>
       <c r="R11" t="n">
         <v>2293.09180942793</v>
       </c>
       <c r="S11" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T11" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U11" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="V11" t="n">
-        <v>1930.474859361757</v>
+        <v>1888.778534093298</v>
       </c>
       <c r="W11" t="n">
-        <v>1525.61940477279</v>
+        <v>1888.778534093298</v>
       </c>
       <c r="X11" t="n">
-        <v>1106.476941352101</v>
+        <v>1888.778534093298</v>
       </c>
       <c r="Y11" t="n">
-        <v>698.1908176517542</v>
+        <v>1888.778534093298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C12" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D12" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E12" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F12" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G12" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H12" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I12" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J12" t="n">
-        <v>170.323240853186</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K12" t="n">
-        <v>326.2313601937183</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L12" t="n">
-        <v>535.8690669040166</v>
+        <v>561.932740064474</v>
       </c>
       <c r="M12" t="n">
-        <v>780.5063826631101</v>
+        <v>806.5700558235675</v>
       </c>
       <c r="N12" t="n">
-        <v>1031.618520229295</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O12" t="n">
-        <v>1261.337067364201</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P12" t="n">
-        <v>1445.706453784825</v>
+        <v>1471.770126945282</v>
       </c>
       <c r="Q12" t="n">
-        <v>1568.952506023922</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R12" t="n">
         <v>1676.26891337681</v>
@@ -5162,10 +5162,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X12" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y12" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.7408728111079</v>
+        <v>730.7665982913176</v>
       </c>
       <c r="C13" t="n">
-        <v>348.1791612943328</v>
+        <v>558.2048867745425</v>
       </c>
       <c r="D13" t="n">
-        <v>348.1791612943328</v>
+        <v>392.3268939760652</v>
       </c>
       <c r="E13" t="n">
-        <v>178.4211575450701</v>
+        <v>222.5688902268024</v>
       </c>
       <c r="F13" t="n">
-        <v>178.4211575450701</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G13" t="n">
-        <v>178.4211575450701</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H13" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I13" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J13" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K13" t="n">
-        <v>558.4711234671629</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L13" t="n">
-        <v>1097.023873694267</v>
+        <v>735.6857339584417</v>
       </c>
       <c r="M13" t="n">
-        <v>1664.56409652768</v>
+        <v>1303.225956791854</v>
       </c>
       <c r="N13" t="n">
-        <v>1997.596536443275</v>
+        <v>1869.352407300163</v>
       </c>
       <c r="O13" t="n">
         <v>2112.0083573313</v>
@@ -5226,25 +5226,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S13" t="n">
-        <v>2148.243333477583</v>
+        <v>2232.76650747533</v>
       </c>
       <c r="T13" t="n">
-        <v>1905.892660970112</v>
+        <v>2232.76650747533</v>
       </c>
       <c r="U13" t="n">
-        <v>1744.352829425852</v>
+        <v>1954.378554906062</v>
       </c>
       <c r="V13" t="n">
-        <v>1457.397321296283</v>
+        <v>1667.423046776492</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.370916882574</v>
+        <v>1395.396642362784</v>
       </c>
       <c r="X13" t="n">
-        <v>939.9791622159869</v>
+        <v>1150.004887696196</v>
       </c>
       <c r="Y13" t="n">
-        <v>712.5594915300951</v>
+        <v>922.5852170103046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>479.6365810302634</v>
+        <v>1753.245505000412</v>
       </c>
       <c r="C14" t="n">
-        <v>479.6365810302634</v>
+        <v>1315.103032183835</v>
       </c>
       <c r="D14" t="n">
-        <v>479.6365810302634</v>
+        <v>879.1932473582797</v>
       </c>
       <c r="E14" t="n">
-        <v>45.8618361885586</v>
+        <v>445.4185025165748</v>
       </c>
       <c r="F14" t="n">
-        <v>45.8618361885586</v>
+        <v>445.4185025165748</v>
       </c>
       <c r="G14" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855859</v>
       </c>
       <c r="H14" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855859</v>
       </c>
       <c r="I14" t="n">
-        <v>115.022324305731</v>
+        <v>115.0223243057313</v>
       </c>
       <c r="J14" t="n">
-        <v>268.1792013766517</v>
+        <v>268.179201376652</v>
       </c>
       <c r="K14" t="n">
-        <v>497.721658281291</v>
+        <v>497.7216582812911</v>
       </c>
       <c r="L14" t="n">
-        <v>782.4893736039827</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M14" t="n">
         <v>1099.348325765037</v>
@@ -5296,7 +5296,7 @@
         <v>1725.376694248109</v>
       </c>
       <c r="P14" t="n">
-        <v>1984.869769184644</v>
+        <v>1984.869769184643</v>
       </c>
       <c r="Q14" t="n">
         <v>2179.738261607712</v>
@@ -5308,22 +5308,22 @@
         <v>2293.09180942793</v>
       </c>
       <c r="T14" t="n">
-        <v>2293.09180942793</v>
+        <v>2081.08428230174</v>
       </c>
       <c r="U14" t="n">
-        <v>2293.09180942793</v>
+        <v>2081.08428230174</v>
       </c>
       <c r="V14" t="n">
-        <v>1930.474859361756</v>
+        <v>2081.08428230174</v>
       </c>
       <c r="W14" t="n">
-        <v>1525.61940477279</v>
+        <v>2081.08428230174</v>
       </c>
       <c r="X14" t="n">
-        <v>1106.4769413521</v>
+        <v>2081.08428230174</v>
       </c>
       <c r="Y14" t="n">
-        <v>905.9361515151712</v>
+        <v>2081.08428230174</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>78.08339825419795</v>
       </c>
       <c r="H15" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855859</v>
       </c>
       <c r="I15" t="n">
-        <v>79.10405409939268</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J15" t="n">
-        <v>170.3232408531859</v>
+        <v>217.6935543531099</v>
       </c>
       <c r="K15" t="n">
-        <v>326.2313601937183</v>
+        <v>373.6016736936422</v>
       </c>
       <c r="L15" t="n">
-        <v>535.8690669040166</v>
+        <v>583.2393804039403</v>
       </c>
       <c r="M15" t="n">
-        <v>827.8766961630338</v>
+        <v>827.8766961630339</v>
       </c>
       <c r="N15" t="n">
         <v>1078.988833729219</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.919156199807</v>
+        <v>740.5598464554323</v>
       </c>
       <c r="C16" t="n">
-        <v>503.357444683032</v>
+        <v>567.9981349386572</v>
       </c>
       <c r="D16" t="n">
-        <v>337.4794518845547</v>
+        <v>567.9981349386572</v>
       </c>
       <c r="E16" t="n">
-        <v>167.721448135292</v>
+        <v>398.2401311893945</v>
       </c>
       <c r="F16" t="n">
-        <v>45.8618361885586</v>
+        <v>221.5330771511507</v>
       </c>
       <c r="G16" t="n">
-        <v>45.8618361885586</v>
+        <v>221.5330771511507</v>
       </c>
       <c r="H16" t="n">
-        <v>45.8618361885586</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="I16" t="n">
-        <v>45.8618361885586</v>
+        <v>45.86183618855859</v>
       </c>
       <c r="J16" t="n">
         <v>103.0898224920169</v>
       </c>
       <c r="K16" t="n">
-        <v>417.0663928047701</v>
+        <v>471.8914383024731</v>
       </c>
       <c r="L16" t="n">
-        <v>537.4092612639133</v>
+        <v>1010.444188529577</v>
       </c>
       <c r="M16" t="n">
-        <v>664.2939427388434</v>
+        <v>1137.328870004507</v>
       </c>
       <c r="N16" t="n">
-        <v>1230.420393247152</v>
+        <v>1577.927287217493</v>
       </c>
       <c r="O16" t="n">
-        <v>1764.501463360958</v>
+        <v>2112.0083573313</v>
       </c>
       <c r="P16" t="n">
         <v>2209.907435353829</v>
       </c>
       <c r="Q16" t="n">
-        <v>2277.687682472404</v>
+        <v>2277.687682472403</v>
       </c>
       <c r="R16" t="n">
         <v>2293.09180942793</v>
       </c>
       <c r="S16" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T16" t="n">
-        <v>1905.892660970111</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U16" t="n">
-        <v>1627.504708400843</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V16" t="n">
-        <v>1340.549200271274</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W16" t="n">
-        <v>1340.549200271274</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.157445604686</v>
+        <v>967.9795171413241</v>
       </c>
       <c r="Y16" t="n">
-        <v>867.7377749187942</v>
+        <v>740.5598464554323</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1587.610043176437</v>
+        <v>1781.556268263188</v>
       </c>
       <c r="C17" t="n">
-        <v>1149.467570359861</v>
+        <v>1343.413795446611</v>
       </c>
       <c r="D17" t="n">
-        <v>1149.467570359861</v>
+        <v>907.5040106210556</v>
       </c>
       <c r="E17" t="n">
-        <v>715.6928255181558</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F17" t="n">
-        <v>715.6928255181558</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G17" t="n">
-        <v>316.1361591901396</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H17" t="n">
         <v>45.8618361885586</v>
       </c>
       <c r="I17" t="n">
-        <v>115.0223243057313</v>
+        <v>115.0223243057316</v>
       </c>
       <c r="J17" t="n">
-        <v>268.1792013766519</v>
+        <v>268.1792013766522</v>
       </c>
       <c r="K17" t="n">
-        <v>497.7216582812911</v>
+        <v>497.7216582812914</v>
       </c>
       <c r="L17" t="n">
-        <v>782.4893736039828</v>
+        <v>782.4893736039832</v>
       </c>
       <c r="M17" t="n">
-        <v>1099.348325765037</v>
+        <v>1099.348325765038</v>
       </c>
       <c r="N17" t="n">
         <v>1421.334387037893</v>
@@ -5545,22 +5545,22 @@
         <v>2251.395484159472</v>
       </c>
       <c r="T17" t="n">
-        <v>2251.395484159472</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="U17" t="n">
-        <v>2251.395484159472</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="V17" t="n">
-        <v>2251.395484159472</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="W17" t="n">
-        <v>2251.395484159472</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="X17" t="n">
-        <v>1832.253020738783</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="Y17" t="n">
-        <v>1832.253020738783</v>
+        <v>2207.855838748096</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>45.8618361885586</v>
       </c>
       <c r="I18" t="n">
-        <v>79.10405409939268</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J18" t="n">
-        <v>170.3232408531859</v>
+        <v>217.6935543531099</v>
       </c>
       <c r="K18" t="n">
-        <v>373.6016736936418</v>
+        <v>373.6016736936421</v>
       </c>
       <c r="L18" t="n">
-        <v>583.2393804039401</v>
+        <v>583.2393804039403</v>
       </c>
       <c r="M18" t="n">
-        <v>827.8766961630338</v>
+        <v>827.8766961630339</v>
       </c>
       <c r="N18" t="n">
         <v>1078.988833729219</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>686.6188656095852</v>
+        <v>548.7412277364456</v>
       </c>
       <c r="C19" t="n">
-        <v>514.0571540928102</v>
+        <v>392.3268939760652</v>
       </c>
       <c r="D19" t="n">
-        <v>348.1791612943328</v>
+        <v>392.3268939760652</v>
       </c>
       <c r="E19" t="n">
-        <v>178.4211575450701</v>
+        <v>222.5688902268024</v>
       </c>
       <c r="F19" t="n">
-        <v>178.4211575450701</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G19" t="n">
-        <v>178.4211575450701</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H19" t="n">
         <v>45.8618361885586</v>
@@ -5673,25 +5673,25 @@
         <v>45.8618361885586</v>
       </c>
       <c r="J19" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K19" t="n">
-        <v>558.4711234671629</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L19" t="n">
-        <v>678.8139919263062</v>
+        <v>317.4758521904807</v>
       </c>
       <c r="M19" t="n">
-        <v>805.6986734012363</v>
+        <v>664.2939427388434</v>
       </c>
       <c r="N19" t="n">
-        <v>1062.22761838282</v>
+        <v>1230.420393247152</v>
       </c>
       <c r="O19" t="n">
-        <v>1596.308688496626</v>
+        <v>1764.501463360958</v>
       </c>
       <c r="P19" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q19" t="n">
         <v>2277.687682472404</v>
@@ -5700,25 +5700,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S19" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T19" t="n">
-        <v>1905.892660970111</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U19" t="n">
-        <v>1627.504708400843</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V19" t="n">
-        <v>1340.549200271274</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W19" t="n">
-        <v>1068.522795857565</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X19" t="n">
-        <v>1068.522795857565</v>
+        <v>967.9795171413245</v>
       </c>
       <c r="Y19" t="n">
-        <v>841.1031251716734</v>
+        <v>740.5598464554328</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1584.03435098004</v>
+        <v>1781.556268263188</v>
       </c>
       <c r="C20" t="n">
-        <v>1584.03435098004</v>
+        <v>1343.413795446611</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.124566154484</v>
+        <v>907.5040106210556</v>
       </c>
       <c r="E20" t="n">
-        <v>1143.560255108948</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F20" t="n">
-        <v>715.6928255181558</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G20" t="n">
-        <v>316.1361591901396</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H20" t="n">
         <v>45.8618361885586</v>
       </c>
       <c r="I20" t="n">
-        <v>115.022324305731</v>
+        <v>115.0223243057313</v>
       </c>
       <c r="J20" t="n">
-        <v>268.1792013766517</v>
+        <v>268.1792013766519</v>
       </c>
       <c r="K20" t="n">
-        <v>497.721658281291</v>
+        <v>497.7216582812914</v>
       </c>
       <c r="L20" t="n">
-        <v>782.4893736039827</v>
+        <v>782.489373603983</v>
       </c>
       <c r="M20" t="n">
-        <v>1099.348325765037</v>
+        <v>1099.348325765038</v>
       </c>
       <c r="N20" t="n">
         <v>1421.334387037893</v>
@@ -5785,19 +5785,19 @@
         <v>2251.395484159472</v>
       </c>
       <c r="U20" t="n">
-        <v>1992.320474680386</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="V20" t="n">
-        <v>1992.320474680386</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="W20" t="n">
-        <v>1992.320474680386</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="X20" t="n">
-        <v>1992.320474680386</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="Y20" t="n">
-        <v>1584.03435098004</v>
+        <v>2207.855838748096</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>45.8618361885586</v>
       </c>
       <c r="I21" t="n">
-        <v>79.10405409939268</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J21" t="n">
-        <v>170.3232408531859</v>
+        <v>217.6935543531099</v>
       </c>
       <c r="K21" t="n">
-        <v>326.2313601937183</v>
+        <v>373.6016736936421</v>
       </c>
       <c r="L21" t="n">
-        <v>535.8690669040166</v>
+        <v>583.2393804039403</v>
       </c>
       <c r="M21" t="n">
-        <v>780.5063826631101</v>
+        <v>827.8766961630339</v>
       </c>
       <c r="N21" t="n">
-        <v>1031.618520229295</v>
+        <v>1078.988833729219</v>
       </c>
       <c r="O21" t="n">
-        <v>1261.337067364201</v>
+        <v>1308.707380864125</v>
       </c>
       <c r="P21" t="n">
-        <v>1445.706453784825</v>
+        <v>1493.076767284748</v>
       </c>
       <c r="Q21" t="n">
-        <v>1568.952506023922</v>
+        <v>1616.322819523846</v>
       </c>
       <c r="R21" t="n">
         <v>1676.26891337681</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>403.8927517860987</v>
+        <v>631.3124224719904</v>
       </c>
       <c r="C22" t="n">
-        <v>231.3310402693236</v>
+        <v>631.3124224719904</v>
       </c>
       <c r="D22" t="n">
-        <v>231.3310402693236</v>
+        <v>631.3124224719904</v>
       </c>
       <c r="E22" t="n">
-        <v>61.5730365200609</v>
+        <v>519.893603301001</v>
       </c>
       <c r="F22" t="n">
-        <v>61.5730365200609</v>
+        <v>343.1865492627572</v>
       </c>
       <c r="G22" t="n">
-        <v>45.8618361885586</v>
+        <v>178.4211575450701</v>
       </c>
       <c r="H22" t="n">
         <v>45.8618361885586</v>
@@ -5910,25 +5910,25 @@
         <v>45.8618361885586</v>
       </c>
       <c r="J22" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K22" t="n">
-        <v>558.4711234671629</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L22" t="n">
-        <v>678.8139919263062</v>
+        <v>735.6857339584417</v>
       </c>
       <c r="M22" t="n">
-        <v>1246.354214759719</v>
+        <v>1011.800836709185</v>
       </c>
       <c r="N22" t="n">
-        <v>1370.221862110383</v>
+        <v>1577.927287217494</v>
       </c>
       <c r="O22" t="n">
-        <v>1596.308688496626</v>
+        <v>2112.0083573313</v>
       </c>
       <c r="P22" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q22" t="n">
         <v>2277.687682472404</v>
@@ -5955,7 +5955,7 @@
         <v>823.1310411909776</v>
       </c>
       <c r="Y22" t="n">
-        <v>595.7113705050858</v>
+        <v>823.1310411909776</v>
       </c>
     </row>
     <row r="23">
@@ -5977,64 +5977,64 @@
         <v>1189.422091297507</v>
       </c>
       <c r="F23" t="n">
-        <v>761.5546617067146</v>
+        <v>761.5546617067145</v>
       </c>
       <c r="G23" t="n">
         <v>361.9979953786982</v>
       </c>
       <c r="H23" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="I23" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J23" t="n">
-        <v>749.2957250181285</v>
+        <v>314.0410375652105</v>
       </c>
       <c r="K23" t="n">
-        <v>1246.850742164174</v>
+        <v>1377.933786428028</v>
       </c>
       <c r="L23" t="n">
-        <v>1531.618457486866</v>
+        <v>1662.701501750719</v>
       </c>
       <c r="M23" t="n">
-        <v>1848.47740964792</v>
+        <v>1979.560453911774</v>
       </c>
       <c r="N23" t="n">
-        <v>2170.463470920776</v>
+        <v>2301.54651518463</v>
       </c>
       <c r="O23" t="n">
-        <v>2474.505778130992</v>
+        <v>3190.158628842642</v>
       </c>
       <c r="P23" t="n">
-        <v>3562.308727900923</v>
+        <v>4277.961578612573</v>
       </c>
       <c r="Q23" t="n">
-        <v>4303.676006282586</v>
+        <v>4472.830071035642</v>
       </c>
       <c r="R23" t="n">
-        <v>4586.183618855861</v>
+        <v>4586.18361885586</v>
       </c>
       <c r="S23" t="n">
-        <v>4544.487293587403</v>
+        <v>4544.487293587402</v>
       </c>
       <c r="T23" t="n">
-        <v>4351.225095036605</v>
+        <v>4544.487293587402</v>
       </c>
       <c r="U23" t="n">
-        <v>4092.15008555752</v>
+        <v>4285.412284108316</v>
       </c>
       <c r="V23" t="n">
-        <v>3729.533135491346</v>
+        <v>4155.832705976254</v>
       </c>
       <c r="W23" t="n">
-        <v>3324.67768090238</v>
+        <v>3750.977251387287</v>
       </c>
       <c r="X23" t="n">
-        <v>2905.53521748169</v>
+        <v>3331.834787966598</v>
       </c>
       <c r="Y23" t="n">
-        <v>2497.249093781344</v>
+        <v>2923.548664266251</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>208.3452140280996</v>
       </c>
       <c r="G24" t="n">
-        <v>123.9452344427566</v>
+        <v>123.9452344427565</v>
       </c>
       <c r="H24" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="I24" t="n">
         <v>124.9658902879513</v>
       </c>
       <c r="J24" t="n">
-        <v>216.1850770417446</v>
+        <v>216.1850770417445</v>
       </c>
       <c r="K24" t="n">
-        <v>419.4635098822004</v>
+        <v>372.0931963822768</v>
       </c>
       <c r="L24" t="n">
-        <v>629.1012165924986</v>
+        <v>581.730903092575</v>
       </c>
       <c r="M24" t="n">
-        <v>873.7385323515923</v>
+        <v>826.3682188516686</v>
       </c>
       <c r="N24" t="n">
-        <v>1124.850669917777</v>
+        <v>1077.480356417853</v>
       </c>
       <c r="O24" t="n">
-        <v>1354.569217052684</v>
+        <v>1307.19890355276</v>
       </c>
       <c r="P24" t="n">
-        <v>1538.938603473307</v>
+        <v>1491.568289973383</v>
       </c>
       <c r="Q24" t="n">
-        <v>1662.184655712404</v>
+        <v>1614.81434221248</v>
       </c>
       <c r="R24" t="n">
         <v>1722.130749565368</v>
@@ -6135,7 +6135,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F25" t="n">
-        <v>452.8717727452486</v>
+        <v>452.8717727452485</v>
       </c>
       <c r="G25" t="n">
         <v>288.1063810275614</v>
@@ -6144,25 +6144,25 @@
         <v>155.54705967105</v>
       </c>
       <c r="I25" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="J25" t="n">
-        <v>235.5313438452654</v>
+        <v>235.5313438452653</v>
       </c>
       <c r="K25" t="n">
-        <v>604.3329596557217</v>
+        <v>452.5705460238144</v>
       </c>
       <c r="L25" t="n">
-        <v>1085.875205438221</v>
+        <v>991.1232962509187</v>
       </c>
       <c r="M25" t="n">
-        <v>1672.243754094065</v>
+        <v>1577.491844906762</v>
       </c>
       <c r="N25" t="n">
-        <v>1796.111401444729</v>
+        <v>2143.61829541507</v>
       </c>
       <c r="O25" t="n">
-        <v>2330.192471558535</v>
+        <v>2677.699365528877</v>
       </c>
       <c r="P25" t="n">
         <v>2775.598443551406</v>
@@ -6214,64 +6214,64 @@
         <v>1189.422091297507</v>
       </c>
       <c r="F26" t="n">
-        <v>761.5546617067146</v>
+        <v>761.5546617067145</v>
       </c>
       <c r="G26" t="n">
         <v>361.9979953786982</v>
       </c>
       <c r="H26" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="I26" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J26" t="n">
-        <v>314.0410375652105</v>
+        <v>749.2957250181283</v>
       </c>
       <c r="K26" t="n">
-        <v>543.5834944698497</v>
+        <v>978.8381819227675</v>
       </c>
       <c r="L26" t="n">
-        <v>828.3512097925415</v>
+        <v>1263.605897245459</v>
       </c>
       <c r="M26" t="n">
-        <v>1145.210161953596</v>
+        <v>1580.464849406514</v>
       </c>
       <c r="N26" t="n">
-        <v>1467.196223226452</v>
+        <v>1902.450910679369</v>
       </c>
       <c r="O26" t="n">
-        <v>2602.276668893277</v>
+        <v>2474.505778130992</v>
       </c>
       <c r="P26" t="n">
-        <v>3690.079618663208</v>
+        <v>3562.308727900922</v>
       </c>
       <c r="Q26" t="n">
-        <v>4431.446897044872</v>
+        <v>4303.676006282585</v>
       </c>
       <c r="R26" t="n">
-        <v>4586.183618855861</v>
+        <v>4586.18361885586</v>
       </c>
       <c r="S26" t="n">
-        <v>4544.487293587403</v>
+        <v>4544.487293587402</v>
       </c>
       <c r="T26" t="n">
-        <v>4332.479766461212</v>
+        <v>4518.449656042428</v>
       </c>
       <c r="U26" t="n">
-        <v>4073.404756982127</v>
+        <v>4518.449656042428</v>
       </c>
       <c r="V26" t="n">
-        <v>3710.787806915953</v>
+        <v>4155.832705976254</v>
       </c>
       <c r="W26" t="n">
-        <v>3305.932352326987</v>
+        <v>3750.977251387287</v>
       </c>
       <c r="X26" t="n">
-        <v>3305.932352326987</v>
+        <v>3331.834787966598</v>
       </c>
       <c r="Y26" t="n">
-        <v>2897.64622862664</v>
+        <v>2923.548664266251</v>
       </c>
     </row>
     <row r="27">
@@ -6296,28 +6296,28 @@
         <v>208.3452140280996</v>
       </c>
       <c r="G27" t="n">
-        <v>123.9452344427566</v>
+        <v>123.9452344427565</v>
       </c>
       <c r="H27" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="I27" t="n">
-        <v>124.9658902879513</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J27" t="n">
-        <v>216.1850770417446</v>
+        <v>263.5553905416684</v>
       </c>
       <c r="K27" t="n">
-        <v>372.0931963822769</v>
+        <v>419.4635098822007</v>
       </c>
       <c r="L27" t="n">
-        <v>581.7309030925751</v>
+        <v>629.1012165924989</v>
       </c>
       <c r="M27" t="n">
-        <v>826.3682188516688</v>
+        <v>873.7385323515924</v>
       </c>
       <c r="N27" t="n">
-        <v>1077.480356417853</v>
+        <v>1124.850669917777</v>
       </c>
       <c r="O27" t="n">
         <v>1354.569217052684</v>
@@ -6372,7 +6372,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F28" t="n">
-        <v>452.8717727452486</v>
+        <v>452.8717727452485</v>
       </c>
       <c r="G28" t="n">
         <v>288.1063810275614</v>
@@ -6381,25 +6381,25 @@
         <v>155.54705967105</v>
       </c>
       <c r="I28" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="J28" t="n">
-        <v>235.5313438452654</v>
+        <v>235.5313438452653</v>
       </c>
       <c r="K28" t="n">
-        <v>452.5705460238144</v>
+        <v>604.3329596557215</v>
       </c>
       <c r="L28" t="n">
-        <v>991.1232962509187</v>
+        <v>1142.885709882826</v>
       </c>
       <c r="M28" t="n">
-        <v>1577.491844906762</v>
+        <v>1269.770391357756</v>
       </c>
       <c r="N28" t="n">
-        <v>2143.61829541507</v>
+        <v>1796.111401444729</v>
       </c>
       <c r="O28" t="n">
-        <v>2677.699365528877</v>
+        <v>2330.192471558535</v>
       </c>
       <c r="P28" t="n">
         <v>2775.598443551406</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2097.692427453328</v>
+        <v>2352.975529468586</v>
       </c>
       <c r="C29" t="n">
-        <v>1659.549954636751</v>
+        <v>1914.833056652009</v>
       </c>
       <c r="D29" t="n">
-        <v>1223.640169811195</v>
+        <v>1478.923271826454</v>
       </c>
       <c r="E29" t="n">
-        <v>789.8654249694905</v>
+        <v>1045.148526984749</v>
       </c>
       <c r="F29" t="n">
-        <v>361.9979953786982</v>
+        <v>617.2810973939568</v>
       </c>
       <c r="G29" t="n">
-        <v>361.9979953786982</v>
+        <v>217.7244310659405</v>
       </c>
       <c r="H29" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="I29" t="n">
         <v>160.8841604942899</v>
@@ -6466,49 +6466,49 @@
         <v>314.0410375652105</v>
       </c>
       <c r="K29" t="n">
-        <v>543.5834944698497</v>
+        <v>1377.933786428028</v>
       </c>
       <c r="L29" t="n">
-        <v>1531.618457486866</v>
+        <v>1700.772522239922</v>
       </c>
       <c r="M29" t="n">
-        <v>1848.47740964792</v>
+        <v>2017.631474400976</v>
       </c>
       <c r="N29" t="n">
-        <v>2170.463470920776</v>
+        <v>2339.617535673832</v>
       </c>
       <c r="O29" t="n">
-        <v>2474.505778130992</v>
+        <v>2643.659842884048</v>
       </c>
       <c r="P29" t="n">
-        <v>3562.308727900923</v>
+        <v>3731.462792653979</v>
       </c>
       <c r="Q29" t="n">
-        <v>4303.676006282586</v>
+        <v>4472.830071035642</v>
       </c>
       <c r="R29" t="n">
-        <v>4586.183618855861</v>
+        <v>4586.18361885586</v>
       </c>
       <c r="S29" t="n">
-        <v>4544.487293587403</v>
+        <v>4586.18361885586</v>
       </c>
       <c r="T29" t="n">
-        <v>4332.479766461212</v>
+        <v>4374.17609172967</v>
       </c>
       <c r="U29" t="n">
-        <v>4073.404756982127</v>
+        <v>4374.17609172967</v>
       </c>
       <c r="V29" t="n">
-        <v>3710.787806915953</v>
+        <v>4011.559141663496</v>
       </c>
       <c r="W29" t="n">
-        <v>3305.932352326987</v>
+        <v>3606.70368707453</v>
       </c>
       <c r="X29" t="n">
-        <v>2886.789888906298</v>
+        <v>3187.56122365384</v>
       </c>
       <c r="Y29" t="n">
-        <v>2478.503765205951</v>
+        <v>2779.275099953494</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>208.3452140280996</v>
       </c>
       <c r="G30" t="n">
-        <v>123.9452344427566</v>
+        <v>123.9452344427565</v>
       </c>
       <c r="H30" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="I30" t="n">
-        <v>124.9658902879513</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J30" t="n">
-        <v>216.1850770417446</v>
+        <v>242.2487502022021</v>
       </c>
       <c r="K30" t="n">
-        <v>372.0931963822769</v>
+        <v>398.1568695427344</v>
       </c>
       <c r="L30" t="n">
-        <v>581.7309030925751</v>
+        <v>607.7945762530327</v>
       </c>
       <c r="M30" t="n">
-        <v>873.7385323515923</v>
+        <v>852.4318920121262</v>
       </c>
       <c r="N30" t="n">
-        <v>1124.850669917777</v>
+        <v>1103.544029578311</v>
       </c>
       <c r="O30" t="n">
-        <v>1354.569217052684</v>
+        <v>1333.262576713217</v>
       </c>
       <c r="P30" t="n">
-        <v>1538.938603473307</v>
+        <v>1517.631963133841</v>
       </c>
       <c r="Q30" t="n">
-        <v>1662.184655712404</v>
+        <v>1640.878015372938</v>
       </c>
       <c r="R30" t="n">
         <v>1722.130749565368</v>
@@ -6609,7 +6609,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F31" t="n">
-        <v>452.8717727452486</v>
+        <v>452.8717727452485</v>
       </c>
       <c r="G31" t="n">
         <v>288.1063810275614</v>
@@ -6618,25 +6618,25 @@
         <v>155.54705967105</v>
       </c>
       <c r="I31" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="J31" t="n">
-        <v>148.9516586805755</v>
+        <v>235.5313438452653</v>
       </c>
       <c r="K31" t="n">
-        <v>517.7532744910318</v>
+        <v>604.3329596557215</v>
       </c>
       <c r="L31" t="n">
-        <v>643.6164022805769</v>
+        <v>724.6758281148647</v>
       </c>
       <c r="M31" t="n">
-        <v>1229.98495093642</v>
+        <v>1311.044376770708</v>
       </c>
       <c r="N31" t="n">
-        <v>1796.111401444729</v>
+        <v>1877.170827279017</v>
       </c>
       <c r="O31" t="n">
-        <v>2330.192471558535</v>
+        <v>2411.251897392823</v>
       </c>
       <c r="P31" t="n">
         <v>2775.598443551406</v>
@@ -6688,64 +6688,64 @@
         <v>1189.422091297507</v>
       </c>
       <c r="F32" t="n">
-        <v>761.5546617067146</v>
+        <v>761.5546617067145</v>
       </c>
       <c r="G32" t="n">
         <v>361.9979953786982</v>
       </c>
       <c r="H32" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="I32" t="n">
         <v>160.8841604942899</v>
       </c>
       <c r="J32" t="n">
-        <v>314.0410375652105</v>
+        <v>749.2957250181283</v>
       </c>
       <c r="K32" t="n">
-        <v>543.5834944698497</v>
+        <v>978.8381819227675</v>
       </c>
       <c r="L32" t="n">
-        <v>1444.265305132173</v>
+        <v>1263.605897245459</v>
       </c>
       <c r="M32" t="n">
-        <v>2579.345750798998</v>
+        <v>1580.464849406514</v>
       </c>
       <c r="N32" t="n">
-        <v>3714.426196465824</v>
+        <v>1902.450910679369</v>
       </c>
       <c r="O32" t="n">
-        <v>4018.46850367604</v>
+        <v>2474.505778130992</v>
       </c>
       <c r="P32" t="n">
-        <v>4277.961578612574</v>
+        <v>3562.308727900922</v>
       </c>
       <c r="Q32" t="n">
-        <v>4472.830071035643</v>
+        <v>4303.676006282585</v>
       </c>
       <c r="R32" t="n">
-        <v>4586.183618855861</v>
+        <v>4586.18361885586</v>
       </c>
       <c r="S32" t="n">
-        <v>4563.232622162795</v>
+        <v>4544.487293587402</v>
       </c>
       <c r="T32" t="n">
-        <v>4351.225095036605</v>
+        <v>4332.479766461212</v>
       </c>
       <c r="U32" t="n">
-        <v>4092.15008555752</v>
+        <v>4073.404756982126</v>
       </c>
       <c r="V32" t="n">
-        <v>3729.533135491346</v>
+        <v>4073.404756982126</v>
       </c>
       <c r="W32" t="n">
-        <v>3324.67768090238</v>
+        <v>3750.977251387287</v>
       </c>
       <c r="X32" t="n">
-        <v>2905.53521748169</v>
+        <v>3331.834787966598</v>
       </c>
       <c r="Y32" t="n">
-        <v>2497.249093781344</v>
+        <v>2923.548664266251</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>208.3452140280996</v>
       </c>
       <c r="G33" t="n">
-        <v>123.9452344427566</v>
+        <v>123.9452344427565</v>
       </c>
       <c r="H33" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="I33" t="n">
-        <v>124.9658902879513</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J33" t="n">
-        <v>216.1850770417446</v>
+        <v>242.2487502022021</v>
       </c>
       <c r="K33" t="n">
-        <v>372.0931963822769</v>
+        <v>398.1568695427344</v>
       </c>
       <c r="L33" t="n">
-        <v>581.7309030925751</v>
+        <v>607.7945762530327</v>
       </c>
       <c r="M33" t="n">
-        <v>826.3682188516688</v>
+        <v>852.4318920121262</v>
       </c>
       <c r="N33" t="n">
-        <v>1077.480356417853</v>
+        <v>1103.544029578311</v>
       </c>
       <c r="O33" t="n">
-        <v>1307.19890355276</v>
+        <v>1333.262576713217</v>
       </c>
       <c r="P33" t="n">
-        <v>1491.568289973384</v>
+        <v>1517.631963133841</v>
       </c>
       <c r="Q33" t="n">
-        <v>1614.814342212481</v>
+        <v>1640.878015372938</v>
       </c>
       <c r="R33" t="n">
         <v>1722.130749565368</v>
@@ -6846,7 +6846,7 @@
         <v>629.5788267834923</v>
       </c>
       <c r="F34" t="n">
-        <v>452.8717727452486</v>
+        <v>452.8717727452485</v>
       </c>
       <c r="G34" t="n">
         <v>288.1063810275614</v>
@@ -6855,25 +6855,25 @@
         <v>155.54705967105</v>
       </c>
       <c r="I34" t="n">
-        <v>91.72367237711723</v>
+        <v>91.7236723771172</v>
       </c>
       <c r="J34" t="n">
-        <v>235.5313438452654</v>
+        <v>235.5313438452653</v>
       </c>
       <c r="K34" t="n">
-        <v>329.574505084586</v>
+        <v>604.3329596557215</v>
       </c>
       <c r="L34" t="n">
-        <v>868.1272553116903</v>
+        <v>1103.10026946149</v>
       </c>
       <c r="M34" t="n">
-        <v>1454.495803967533</v>
+        <v>1229.98495093642</v>
       </c>
       <c r="N34" t="n">
-        <v>2020.622254475842</v>
+        <v>1796.111401444729</v>
       </c>
       <c r="O34" t="n">
-        <v>2554.703324589648</v>
+        <v>2330.192471558535</v>
       </c>
       <c r="P34" t="n">
         <v>2775.598443551406</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1188.053376848421</v>
+        <v>1405.953450253875</v>
       </c>
       <c r="C35" t="n">
-        <v>749.9109040318444</v>
+        <v>967.8109774372983</v>
       </c>
       <c r="D35" t="n">
-        <v>749.9109040318444</v>
+        <v>531.9011926117428</v>
       </c>
       <c r="E35" t="n">
-        <v>316.1361591901397</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F35" t="n">
-        <v>316.1361591901397</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G35" t="n">
-        <v>316.1361591901397</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H35" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I35" t="n">
         <v>115.0223243057313</v>
       </c>
       <c r="J35" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766519</v>
       </c>
       <c r="K35" t="n">
-        <v>497.7216582812912</v>
+        <v>497.7216582812911</v>
       </c>
       <c r="L35" t="n">
-        <v>782.4893736039829</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M35" t="n">
         <v>1099.348325765037</v>
@@ -6955,10 +6955,10 @@
         <v>1725.376694248109</v>
       </c>
       <c r="P35" t="n">
-        <v>1984.869769184645</v>
+        <v>1984.869769184644</v>
       </c>
       <c r="Q35" t="n">
-        <v>2179.738261607713</v>
+        <v>2179.738261607712</v>
       </c>
       <c r="R35" t="n">
         <v>2293.09180942793</v>
@@ -6976,13 +6976,13 @@
         <v>2251.395484159472</v>
       </c>
       <c r="W35" t="n">
-        <v>2033.495410754018</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="X35" t="n">
-        <v>1614.352947333329</v>
+        <v>1832.253020738783</v>
       </c>
       <c r="Y35" t="n">
-        <v>1614.352947333329</v>
+        <v>1832.253020738783</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1158.35727696435</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C36" t="n">
-        <v>1051.900815800993</v>
+        <v>435.0779197498724</v>
       </c>
       <c r="D36" t="n">
-        <v>956.8105269475459</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E36" t="n">
-        <v>862.6901122744996</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F36" t="n">
-        <v>779.3062738906613</v>
+        <v>162.483377839541</v>
       </c>
       <c r="G36" t="n">
-        <v>694.9062943053183</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H36" t="n">
-        <v>662.684732239679</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I36" t="n">
-        <v>695.9269501505131</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J36" t="n">
-        <v>787.1461369043063</v>
+        <v>217.6935543531099</v>
       </c>
       <c r="K36" t="n">
-        <v>943.0542562448387</v>
+        <v>373.6016736936421</v>
       </c>
       <c r="L36" t="n">
-        <v>1152.691962955137</v>
+        <v>583.2393804039403</v>
       </c>
       <c r="M36" t="n">
-        <v>1397.32927871423</v>
+        <v>827.8766961630339</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.441416280415</v>
+        <v>1078.988833729219</v>
       </c>
       <c r="O36" t="n">
-        <v>1878.159963415322</v>
+        <v>1308.707380864125</v>
       </c>
       <c r="P36" t="n">
-        <v>2062.529349835945</v>
+        <v>1493.076767284748</v>
       </c>
       <c r="Q36" t="n">
-        <v>2185.775402075043</v>
+        <v>1616.322819523846</v>
       </c>
       <c r="R36" t="n">
-        <v>2293.09180942793</v>
+        <v>1676.26891337681</v>
       </c>
       <c r="S36" t="n">
-        <v>2247.934360818347</v>
+        <v>1631.111464767226</v>
       </c>
       <c r="T36" t="n">
-        <v>2121.726402352662</v>
+        <v>1504.903506301542</v>
       </c>
       <c r="U36" t="n">
-        <v>1945.45466523082</v>
+        <v>1328.631769179699</v>
       </c>
       <c r="V36" t="n">
-        <v>1746.337147292819</v>
+        <v>1129.514251241699</v>
       </c>
       <c r="W36" t="n">
-        <v>1561.014393026013</v>
+        <v>944.1914969748925</v>
       </c>
       <c r="X36" t="n">
-        <v>1406.146957264893</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y36" t="n">
-        <v>1279.661178044114</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.914698659449</v>
+        <v>548.7412277364456</v>
       </c>
       <c r="C37" t="n">
-        <v>919.3529871426737</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="D37" t="n">
-        <v>753.4749943441964</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="E37" t="n">
-        <v>583.7169905949337</v>
+        <v>222.5688902268024</v>
       </c>
       <c r="F37" t="n">
-        <v>407.0099365566899</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G37" t="n">
-        <v>242.2445448390028</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H37" t="n">
-        <v>109.6852234824914</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I37" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J37" t="n">
         <v>103.0898224920169</v>
@@ -7101,19 +7101,19 @@
         <v>471.8914383024731</v>
       </c>
       <c r="L37" t="n">
-        <v>1010.444188529577</v>
+        <v>979.6680644215579</v>
       </c>
       <c r="M37" t="n">
-        <v>1137.328870004508</v>
+        <v>1106.552745896488</v>
       </c>
       <c r="N37" t="n">
-        <v>1481.896867608601</v>
+        <v>1230.420393247152</v>
       </c>
       <c r="O37" t="n">
-        <v>1596.308688496626</v>
+        <v>1764.501463360958</v>
       </c>
       <c r="P37" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q37" t="n">
         <v>2277.687682472404</v>
@@ -7125,22 +7125,22 @@
         <v>2293.09180942793</v>
       </c>
       <c r="T37" t="n">
-        <v>2050.741136920459</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U37" t="n">
-        <v>2050.741136920459</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V37" t="n">
-        <v>1763.785628790889</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W37" t="n">
-        <v>1511.152988064328</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.152988064328</v>
+        <v>967.9795171413245</v>
       </c>
       <c r="Y37" t="n">
-        <v>1283.733317378436</v>
+        <v>740.5598464554328</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1151.602610343711</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="C38" t="n">
-        <v>1151.602610343711</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="D38" t="n">
-        <v>715.6928255181559</v>
+        <v>1556.410689854831</v>
       </c>
       <c r="E38" t="n">
-        <v>715.6928255181559</v>
+        <v>1122.635945013126</v>
       </c>
       <c r="F38" t="n">
-        <v>715.6928255181559</v>
+        <v>694.7685154223336</v>
       </c>
       <c r="G38" t="n">
-        <v>316.1361591901397</v>
+        <v>316.1361591901396</v>
       </c>
       <c r="H38" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I38" t="n">
         <v>115.0223243057313</v>
       </c>
       <c r="J38" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766522</v>
       </c>
       <c r="K38" t="n">
-        <v>497.7216582812912</v>
+        <v>497.7216582812914</v>
       </c>
       <c r="L38" t="n">
-        <v>782.4893736039829</v>
+        <v>782.489373603983</v>
       </c>
       <c r="M38" t="n">
-        <v>1099.348325765037</v>
+        <v>1099.348325765038</v>
       </c>
       <c r="N38" t="n">
         <v>1421.334387037893</v>
@@ -7204,22 +7204,22 @@
         <v>2251.395484159472</v>
       </c>
       <c r="T38" t="n">
-        <v>2039.387957033282</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U38" t="n">
-        <v>1780.312947554197</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="V38" t="n">
-        <v>1780.312947554197</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="W38" t="n">
-        <v>1780.312947554197</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="X38" t="n">
-        <v>1361.170484133507</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="Y38" t="n">
-        <v>1361.170484133507</v>
+        <v>1992.320474680386</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C39" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D39" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E39" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F39" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G39" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H39" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I39" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J39" t="n">
-        <v>170.323240853186</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K39" t="n">
-        <v>326.2313601937183</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L39" t="n">
-        <v>535.8690669040166</v>
+        <v>561.932740064474</v>
       </c>
       <c r="M39" t="n">
-        <v>780.5063826631101</v>
+        <v>806.5700558235675</v>
       </c>
       <c r="N39" t="n">
-        <v>1031.618520229295</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O39" t="n">
-        <v>1261.337067364201</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P39" t="n">
-        <v>1445.706453784825</v>
+        <v>1471.770126945282</v>
       </c>
       <c r="Q39" t="n">
-        <v>1568.952506023922</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R39" t="n">
         <v>1676.26891337681</v>
@@ -7295,10 +7295,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X39" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y39" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.914698659449</v>
+        <v>548.7412277364456</v>
       </c>
       <c r="C40" t="n">
-        <v>919.3529871426737</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="D40" t="n">
-        <v>753.4749943441964</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="E40" t="n">
-        <v>583.7169905949337</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="F40" t="n">
-        <v>407.0099365566899</v>
+        <v>199.4724621814267</v>
       </c>
       <c r="G40" t="n">
-        <v>242.2445448390028</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H40" t="n">
-        <v>109.6852234824914</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I40" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J40" t="n">
         <v>103.0898224920169</v>
       </c>
       <c r="K40" t="n">
-        <v>227.8873258077368</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L40" t="n">
-        <v>348.2301942668801</v>
+        <v>317.4758521904807</v>
       </c>
       <c r="M40" t="n">
-        <v>915.7704171002928</v>
+        <v>843.6080618448532</v>
       </c>
       <c r="N40" t="n">
-        <v>1481.896867608601</v>
+        <v>1409.734512353162</v>
       </c>
       <c r="O40" t="n">
-        <v>1596.308688496626</v>
+        <v>1943.815582466968</v>
       </c>
       <c r="P40" t="n">
         <v>2041.714660489497</v>
@@ -7359,25 +7359,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S40" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T40" t="n">
-        <v>2148.243333477583</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U40" t="n">
-        <v>1869.855380908315</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.899872778745</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.899872778745</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.152988064328</v>
+        <v>967.9795171413245</v>
       </c>
       <c r="Y40" t="n">
-        <v>1283.733317378436</v>
+        <v>740.5598464554328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1177.778333622637</v>
+        <v>1781.556268263188</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.778333622637</v>
+        <v>1343.413795446611</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.778333622637</v>
+        <v>907.5040106210556</v>
       </c>
       <c r="E41" t="n">
-        <v>744.003588780932</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F41" t="n">
-        <v>316.1361591901397</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G41" t="n">
-        <v>316.1361591901397</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H41" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I41" t="n">
-        <v>115.0223243057314</v>
+        <v>115.0223243057315</v>
       </c>
       <c r="J41" t="n">
-        <v>268.1792013766521</v>
+        <v>268.1792013766522</v>
       </c>
       <c r="K41" t="n">
-        <v>497.7216582812913</v>
+        <v>497.7216582812914</v>
       </c>
       <c r="L41" t="n">
         <v>782.489373603983</v>
@@ -7426,13 +7426,13 @@
         <v>1421.334387037893</v>
       </c>
       <c r="O41" t="n">
-        <v>1725.37669424811</v>
+        <v>1725.376694248109</v>
       </c>
       <c r="P41" t="n">
         <v>1984.869769184644</v>
       </c>
       <c r="Q41" t="n">
-        <v>2179.738261607713</v>
+        <v>2179.738261607712</v>
       </c>
       <c r="R41" t="n">
         <v>2293.09180942793</v>
@@ -7441,22 +7441,22 @@
         <v>2251.395484159472</v>
       </c>
       <c r="T41" t="n">
-        <v>2039.387957033282</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U41" t="n">
-        <v>1780.312947554197</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="V41" t="n">
-        <v>1780.312947554197</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="W41" t="n">
-        <v>1780.312947554197</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="X41" t="n">
-        <v>1780.312947554197</v>
+        <v>1832.253020738783</v>
       </c>
       <c r="Y41" t="n">
-        <v>1604.077904107545</v>
+        <v>1832.253020738783</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C42" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D42" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E42" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F42" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G42" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H42" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I42" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J42" t="n">
-        <v>217.6935543531096</v>
+        <v>217.6935543531099</v>
       </c>
       <c r="K42" t="n">
-        <v>373.6016736936418</v>
+        <v>373.6016736936421</v>
       </c>
       <c r="L42" t="n">
-        <v>583.2393804039401</v>
+        <v>583.2393804039403</v>
       </c>
       <c r="M42" t="n">
-        <v>827.8766961630338</v>
+        <v>827.8766961630339</v>
       </c>
       <c r="N42" t="n">
         <v>1078.988833729219</v>
@@ -7532,10 +7532,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X42" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y42" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>631.3124224719909</v>
+        <v>548.7412277364456</v>
       </c>
       <c r="C43" t="n">
-        <v>572.8879293551672</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="D43" t="n">
-        <v>407.0099365566899</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="E43" t="n">
-        <v>407.0099365566899</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="F43" t="n">
-        <v>407.0099365566899</v>
+        <v>199.4724621814267</v>
       </c>
       <c r="G43" t="n">
-        <v>242.2445448390028</v>
+        <v>178.4211575450701</v>
       </c>
       <c r="H43" t="n">
-        <v>109.6852234824914</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I43" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J43" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K43" t="n">
-        <v>558.4711234671629</v>
+        <v>471.8914383024731</v>
       </c>
       <c r="L43" t="n">
-        <v>678.8139919263062</v>
+        <v>592.2343067616164</v>
       </c>
       <c r="M43" t="n">
-        <v>1246.354214759719</v>
+        <v>1159.774529595029</v>
       </c>
       <c r="N43" t="n">
         <v>1577.927287217494</v>
@@ -7596,25 +7596,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S43" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T43" t="n">
-        <v>1905.892660970112</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U43" t="n">
-        <v>1627.504708400844</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V43" t="n">
-        <v>1340.549200271274</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W43" t="n">
-        <v>1068.522795857566</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X43" t="n">
-        <v>823.1310411909781</v>
+        <v>967.9795171413245</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.1310411909781</v>
+        <v>740.5598464554328</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1353.688838672396</v>
+        <v>1589.745083160288</v>
       </c>
       <c r="C44" t="n">
-        <v>915.546365855819</v>
+        <v>1151.602610343711</v>
       </c>
       <c r="D44" t="n">
-        <v>479.6365810302634</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="E44" t="n">
-        <v>45.86183618855861</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="F44" t="n">
-        <v>45.86183618855861</v>
+        <v>715.6928255181558</v>
       </c>
       <c r="G44" t="n">
-        <v>45.86183618855861</v>
+        <v>316.1361591901396</v>
       </c>
       <c r="H44" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I44" t="n">
         <v>115.0223243057312</v>
       </c>
       <c r="J44" t="n">
-        <v>268.1792013766522</v>
+        <v>268.179201376652</v>
       </c>
       <c r="K44" t="n">
-        <v>497.7216582812914</v>
+        <v>497.7216582812911</v>
       </c>
       <c r="L44" t="n">
-        <v>782.489373603983</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M44" t="n">
         <v>1099.348325765037</v>
@@ -7678,22 +7678,22 @@
         <v>2251.395484159472</v>
       </c>
       <c r="T44" t="n">
-        <v>2039.387957033282</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U44" t="n">
-        <v>1780.312947554197</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="V44" t="n">
-        <v>1780.312947554197</v>
+        <v>1992.320474680386</v>
       </c>
       <c r="W44" t="n">
-        <v>1780.312947554197</v>
+        <v>1589.745083160288</v>
       </c>
       <c r="X44" t="n">
-        <v>1361.170484133507</v>
+        <v>1589.745083160288</v>
       </c>
       <c r="Y44" t="n">
-        <v>1353.688838672396</v>
+        <v>1589.745083160288</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C45" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D45" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E45" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F45" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G45" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H45" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I45" t="n">
-        <v>79.1040540993927</v>
+        <v>79.10405409939268</v>
       </c>
       <c r="J45" t="n">
-        <v>170.323240853186</v>
+        <v>170.3232408531859</v>
       </c>
       <c r="K45" t="n">
-        <v>326.2313601937183</v>
+        <v>326.2313601937182</v>
       </c>
       <c r="L45" t="n">
-        <v>535.8690669040166</v>
+        <v>535.8690669040164</v>
       </c>
       <c r="M45" t="n">
-        <v>780.5063826631101</v>
+        <v>780.50638266311</v>
       </c>
       <c r="N45" t="n">
         <v>1031.618520229295</v>
@@ -7769,10 +7769,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X45" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y45" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>403.8927517860992</v>
+        <v>794.1329824030331</v>
       </c>
       <c r="C46" t="n">
-        <v>231.3310402693241</v>
+        <v>621.571270886258</v>
       </c>
       <c r="D46" t="n">
-        <v>222.5688902268024</v>
+        <v>621.571270886258</v>
       </c>
       <c r="E46" t="n">
-        <v>222.5688902268024</v>
+        <v>451.8132671369953</v>
       </c>
       <c r="F46" t="n">
-        <v>45.86183618855861</v>
+        <v>275.1062130987515</v>
       </c>
       <c r="G46" t="n">
-        <v>45.86183618855861</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="H46" t="n">
-        <v>45.86183618855861</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="I46" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J46" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K46" t="n">
-        <v>558.4711234671629</v>
+        <v>471.8914383024731</v>
       </c>
       <c r="L46" t="n">
-        <v>1097.023873694267</v>
+        <v>592.2343067616164</v>
       </c>
       <c r="M46" t="n">
-        <v>1223.908555169197</v>
+        <v>719.1189882365464</v>
       </c>
       <c r="N46" t="n">
-        <v>1481.896867608601</v>
+        <v>1285.245438744855</v>
       </c>
       <c r="O46" t="n">
         <v>1596.308688496626</v>
@@ -7833,25 +7833,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S46" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T46" t="n">
-        <v>1905.892660970112</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U46" t="n">
-        <v>1627.504708400844</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V46" t="n">
-        <v>1340.549200271274</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W46" t="n">
-        <v>1068.522795857566</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X46" t="n">
-        <v>823.1310411909781</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="Y46" t="n">
-        <v>595.7113705050863</v>
+        <v>985.9516011220203</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.84880151507423</v>
+        <v>21.52185892875377</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8859,10 +8859,10 @@
         <v>445.1066074328107</v>
       </c>
       <c r="N13" t="n">
-        <v>211.2775682474055</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>129.5395243869821</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>21.52185892875397</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>222.1549586600329</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>319.9300705680018</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>21.52185892875389</v>
       </c>
       <c r="K18" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>222.1549586600329</v>
       </c>
       <c r="N19" t="n">
-        <v>134.0013107383028</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>21.52185892875389</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.84880151507423</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>445.1066074328106</v>
+        <v>150.7377992684983</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>112.8030358567864</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>270.7197578196027</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>590.4745519674716</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>47.84880151507429</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>47.84880151507468</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>124.2384251911398</v>
       </c>
       <c r="L25" t="n">
-        <v>364.8478558821785</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>839.4324630874844</v>
+        <v>270.7197578196019</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>41.80118584926367</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>21.52185892875389</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>47.84880151507423</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>124.2384251911398</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>406.5387502386957</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>710.3709572669944</v>
+        <v>38.45557625171955</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>21.52185892875377</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>5.576019525658467</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>269.1388567030845</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>622.1354498380116</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>826.4863570765365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>821.3074589838079</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>270.7197578196019</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>47.84880151507423</v>
+        <v>21.52185892875377</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>382.2469104511366</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10524,7 +10524,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>124.2384251911394</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>21.52185892875389</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.84880151507423</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>391.3472299595369</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>222.9296467206361</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>47.84880151507423</v>
+        <v>21.52185892875377</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>31.06499199636289</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>445.1066074328108</v>
+        <v>403.2803314943863</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>47.84880151507434</v>
+        <v>21.52185892875389</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,10 +11226,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>445.1066074328108</v>
+        <v>445.1066074328107</v>
       </c>
       <c r="N43" t="n">
-        <v>209.8034597041526</v>
+        <v>297.2576871432329</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.84880151507423</v>
+        <v>47.84880151507468</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>135.4754192815556</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>198.6378069330774</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>287.8588759781011</v>
       </c>
       <c r="F11" t="n">
-        <v>199.8196384263795</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.5715797715652</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.8874518549281</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.1177378005102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I13" t="n">
         <v>63.18515342099344</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>83.67794225777021</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.9271657823968</v>
       </c>
       <c r="U13" t="n">
-        <v>115.6796398147587</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>97.4761852517442</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.5715797715652</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T14" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4842593842947</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.6678805247833</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>54.29896767059532</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.1177378005102</v>
       </c>
       <c r="H16" t="n">
-        <v>131.2337281429463</v>
+        <v>20.50435301097357</v>
       </c>
       <c r="I16" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>179.8400269933368</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8874518549281</v>
+        <v>166.7832028976657</v>
       </c>
       <c r="U17" t="n">
         <v>256.4842593842947</v>
@@ -23797,7 +23797,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.96101556532997</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>15.98590397883069</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.1177378005102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I19" t="n">
         <v>63.18515342099344</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>424.9183294582072</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>209.8874518549281</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>371.84678982922</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>57.75579273249059</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>147.563649472323</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>63.18515342099344</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>18.55787528963845</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>230.7069982147702</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25.64341128321519</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>184.1101906854037</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.0333504049616</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>142.8308286696301</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>41.27936201577356</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>18.55787528963874</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>81.60366950418666</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.8467898292197</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.561099664736</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>185.0858273716772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>15.98590397883069</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6040730435755</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>19.19982605027553</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>214.5643797281608</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>20.715066994864</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>11.04321806757082</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T40" t="n">
-        <v>239.9271657823968</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>171.9084212526481</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>371.8467898292198</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>395.561099664736</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.7305694511578</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>112.9958462159519</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>142.2769462105171</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>2.257262438179737</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.7964334568426</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>155.5446843283961</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.1177378005102</v>
+        <v>130.5846862233591</v>
       </c>
       <c r="H46" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>262616.375981636</v>
+        <v>262616.3759816361</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>262616.375981636</v>
+        <v>262616.3759816361</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506181.4260670994</v>
+        <v>506181.4260670993</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506181.4260670994</v>
+        <v>506181.4260670993</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506181.4260670994</v>
+        <v>506181.4260670993</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>262616.375981636</v>
+        <v>262616.3759816361</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>262616.375981636</v>
+        <v>262616.3759816361</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>497215.4012453022</v>
       </c>
       <c r="C2" t="n">
-        <v>497215.4012453022</v>
+        <v>497215.4012453023</v>
       </c>
       <c r="D2" t="n">
         <v>497215.4012453022</v>
       </c>
       <c r="E2" t="n">
-        <v>292255.9949261944</v>
+        <v>292255.9949261945</v>
       </c>
       <c r="F2" t="n">
         <v>292255.9949261945</v>
@@ -26334,19 +26334,19 @@
         <v>292255.9949261945</v>
       </c>
       <c r="I2" t="n">
-        <v>476022.2015816176</v>
+        <v>476022.2015816174</v>
       </c>
       <c r="J2" t="n">
-        <v>476022.2015816176</v>
+        <v>476022.2015816174</v>
       </c>
       <c r="K2" t="n">
         <v>476022.2015816175</v>
       </c>
       <c r="L2" t="n">
-        <v>476022.2015816175</v>
+        <v>476022.2015816174</v>
       </c>
       <c r="M2" t="n">
-        <v>292255.9949261947</v>
+        <v>292255.9949261945</v>
       </c>
       <c r="N2" t="n">
         <v>292255.9949261945</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>152445.3167637212</v>
+        <v>152445.3167637211</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>16963.5527759019</v>
@@ -26438,16 +26438,16 @@
         <v>16963.5527759019</v>
       </c>
       <c r="I4" t="n">
-        <v>106074.1615805067</v>
+        <v>106074.1615805066</v>
       </c>
       <c r="J4" t="n">
-        <v>106074.1615805067</v>
+        <v>106074.1615805066</v>
       </c>
       <c r="K4" t="n">
         <v>106074.1615805067</v>
       </c>
       <c r="L4" t="n">
-        <v>106074.1615805066</v>
+        <v>106074.1615805067</v>
       </c>
       <c r="M4" t="n">
         <v>16963.5527759019</v>
@@ -26459,7 +26459,7 @@
         <v>16963.5527759019</v>
       </c>
       <c r="P4" t="n">
-        <v>16963.5527759019</v>
+        <v>16963.55277590191</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="F5" t="n">
-        <v>44739.33149357094</v>
+        <v>44739.33149357093</v>
       </c>
       <c r="G5" t="n">
         <v>44739.33149357094</v>
@@ -26490,28 +26490,28 @@
         <v>44739.33149357094</v>
       </c>
       <c r="I5" t="n">
-        <v>79594.32699687549</v>
+        <v>79594.32699687548</v>
       </c>
       <c r="J5" t="n">
-        <v>79594.32699687549</v>
+        <v>79594.32699687548</v>
       </c>
       <c r="K5" t="n">
-        <v>79594.32699687549</v>
+        <v>79594.32699687548</v>
       </c>
       <c r="L5" t="n">
-        <v>79594.32699687549</v>
+        <v>79594.32699687548</v>
       </c>
       <c r="M5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="N5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="O5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="P5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="C6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="D6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="E6" t="n">
-        <v>-304884.4610767089</v>
+        <v>-305455.7346529449</v>
       </c>
       <c r="F6" t="n">
-        <v>230553.1106567217</v>
+        <v>229981.8370804856</v>
       </c>
       <c r="G6" t="n">
-        <v>230553.1106567216</v>
+        <v>229981.8370804856</v>
       </c>
       <c r="H6" t="n">
-        <v>230553.1106567216</v>
+        <v>229981.8370804856</v>
       </c>
       <c r="I6" t="n">
-        <v>137908.3962405143</v>
+        <v>137820.7179449503</v>
       </c>
       <c r="J6" t="n">
-        <v>290353.7130042354</v>
+        <v>290266.0347086714</v>
       </c>
       <c r="K6" t="n">
-        <v>290353.7130042354</v>
+        <v>290266.0347086716</v>
       </c>
       <c r="L6" t="n">
-        <v>290353.7130042354</v>
+        <v>290266.0347086714</v>
       </c>
       <c r="M6" t="n">
-        <v>230553.1106567218</v>
+        <v>229981.8370804856</v>
       </c>
       <c r="N6" t="n">
-        <v>230553.1106567217</v>
+        <v>229981.8370804857</v>
       </c>
       <c r="O6" t="n">
-        <v>230553.1106567217</v>
+        <v>229981.8370804857</v>
       </c>
       <c r="P6" t="n">
-        <v>230553.1106567216</v>
+        <v>229981.8370804857</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>453.4099078103857</v>
       </c>
       <c r="F3" t="n">
-        <v>453.4099078103857</v>
+        <v>453.4099078103856</v>
       </c>
       <c r="G3" t="n">
         <v>453.4099078103857</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="F4" t="n">
-        <v>573.2729523569825</v>
+        <v>573.2729523569824</v>
       </c>
       <c r="G4" t="n">
         <v>573.2729523569825</v>
@@ -26822,16 +26822,16 @@
         <v>1146.545904713965</v>
       </c>
       <c r="M4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="N4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="O4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="P4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>573.2729523569827</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H11" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J11" t="n">
         <v>154.7039162332532</v>
@@ -31782,19 +31782,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R11" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S11" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T11" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H12" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I12" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J12" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K12" t="n">
         <v>157.4829488288205</v>
@@ -31864,13 +31864,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R12" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S12" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T12" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U12" t="n">
         <v>0.06416177940713008</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H13" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I13" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J13" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K13" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L13" t="n">
         <v>121.5584529890336</v>
@@ -31937,10 +31937,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P13" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R13" t="n">
         <v>36.76336727918306</v>
@@ -31992,10 +31992,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H14" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J14" t="n">
         <v>154.7039162332532</v>
@@ -32007,31 +32007,31 @@
         <v>287.6441568916078</v>
       </c>
       <c r="M14" t="n">
-        <v>320.0595476374287</v>
+        <v>320.0595476374286</v>
       </c>
       <c r="N14" t="n">
-        <v>325.2384457301574</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O14" t="n">
-        <v>307.1134416264809</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P14" t="n">
-        <v>262.114217107611</v>
+        <v>262.1142171076109</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R14" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S14" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T14" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883766</v>
       </c>
       <c r="H15" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966691</v>
       </c>
       <c r="I15" t="n">
-        <v>33.5779978897314</v>
+        <v>33.57799788973139</v>
       </c>
       <c r="J15" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059923</v>
       </c>
       <c r="K15" t="n">
         <v>157.4829488288205</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7552593033316</v>
+        <v>211.7552593033315</v>
       </c>
       <c r="M15" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N15" t="n">
         <v>253.648623804227</v>
@@ -32101,16 +32101,16 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R15" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248888</v>
       </c>
       <c r="S15" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T15" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06416177940713008</v>
+        <v>0.06416177940713007</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203674</v>
       </c>
       <c r="H16" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582908</v>
       </c>
       <c r="I16" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J16" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116997</v>
       </c>
       <c r="K16" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092993</v>
       </c>
       <c r="L16" t="n">
         <v>121.5584529890336</v>
@@ -32174,10 +32174,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P16" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851422</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R16" t="n">
         <v>36.76336727918306</v>
@@ -32186,10 +32186,10 @@
         <v>14.24896382413949</v>
       </c>
       <c r="T16" t="n">
-        <v>3.493486174932479</v>
+        <v>3.493486174932478</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04459769585020192</v>
+        <v>0.04459769585020191</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H17" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I17" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J17" t="n">
         <v>154.7039162332532</v>
@@ -32256,19 +32256,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R17" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S17" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T17" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H18" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I18" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J18" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K18" t="n">
         <v>157.4829488288205</v>
@@ -32338,13 +32338,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R18" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S18" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T18" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U18" t="n">
         <v>0.06416177940713008</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H19" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I19" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J19" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K19" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L19" t="n">
         <v>121.5584529890336</v>
@@ -32411,10 +32411,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P19" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R19" t="n">
         <v>36.76336727918306</v>
@@ -32466,10 +32466,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H20" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I20" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J20" t="n">
         <v>154.7039162332532</v>
@@ -32493,19 +32493,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q20" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R20" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S20" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T20" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H21" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I21" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J21" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K21" t="n">
         <v>157.4829488288205</v>
@@ -32575,13 +32575,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R21" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S21" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T21" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U21" t="n">
         <v>0.06416177940713008</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H22" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I22" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J22" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K22" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L22" t="n">
         <v>121.5584529890336</v>
@@ -32648,10 +32648,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P22" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R22" t="n">
         <v>36.76336727918306</v>
@@ -32703,10 +32703,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H23" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I23" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J23" t="n">
         <v>154.7039162332532</v>
@@ -32730,19 +32730,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q23" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R23" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S23" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T23" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H24" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I24" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J24" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K24" t="n">
         <v>157.4829488288205</v>
@@ -32812,13 +32812,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R24" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S24" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T24" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U24" t="n">
         <v>0.06416177940713008</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H25" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I25" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J25" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K25" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L25" t="n">
         <v>121.5584529890336</v>
@@ -32885,10 +32885,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P25" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R25" t="n">
         <v>36.76336727918306</v>
@@ -32940,10 +32940,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H26" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I26" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J26" t="n">
         <v>154.7039162332532</v>
@@ -32967,19 +32967,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q26" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R26" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S26" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T26" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H27" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I27" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J27" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K27" t="n">
         <v>157.4829488288205</v>
@@ -33049,13 +33049,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R27" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S27" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T27" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U27" t="n">
         <v>0.06416177940713008</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H28" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I28" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J28" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K28" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L28" t="n">
         <v>121.5584529890336</v>
@@ -33122,10 +33122,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P28" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R28" t="n">
         <v>36.76336727918306</v>
@@ -33177,10 +33177,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H29" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I29" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J29" t="n">
         <v>154.7039162332532</v>
@@ -33204,19 +33204,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q29" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R29" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S29" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T29" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H30" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I30" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J30" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K30" t="n">
         <v>157.4829488288205</v>
@@ -33286,13 +33286,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R30" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S30" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T30" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U30" t="n">
         <v>0.06416177940713008</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H31" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I31" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J31" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K31" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L31" t="n">
         <v>121.5584529890336</v>
@@ -33359,10 +33359,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P31" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R31" t="n">
         <v>36.76336727918306</v>
@@ -33414,10 +33414,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H32" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I32" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J32" t="n">
         <v>154.7039162332532</v>
@@ -33441,19 +33441,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R32" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S32" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T32" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H33" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I33" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J33" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K33" t="n">
         <v>157.4829488288205</v>
@@ -33523,13 +33523,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R33" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S33" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T33" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U33" t="n">
         <v>0.06416177940713008</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H34" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I34" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J34" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K34" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L34" t="n">
         <v>121.5584529890336</v>
@@ -33596,10 +33596,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P34" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R34" t="n">
         <v>36.76336727918306</v>
@@ -33651,10 +33651,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H35" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I35" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J35" t="n">
         <v>154.7039162332532</v>
@@ -33678,19 +33678,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R35" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S35" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T35" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H36" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I36" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J36" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K36" t="n">
         <v>157.4829488288205</v>
@@ -33760,13 +33760,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R36" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S36" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T36" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U36" t="n">
         <v>0.06416177940713008</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H37" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I37" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J37" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K37" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L37" t="n">
         <v>121.5584529890336</v>
@@ -33833,10 +33833,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P37" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R37" t="n">
         <v>36.76336727918306</v>
@@ -33888,10 +33888,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H38" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I38" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J38" t="n">
         <v>154.7039162332532</v>
@@ -33915,19 +33915,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q38" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R38" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S38" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T38" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H39" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I39" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J39" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K39" t="n">
         <v>157.4829488288205</v>
@@ -33997,13 +33997,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R39" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S39" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T39" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U39" t="n">
         <v>0.06416177940713008</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H40" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I40" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J40" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K40" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L40" t="n">
         <v>121.5584529890336</v>
@@ -34070,10 +34070,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P40" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R40" t="n">
         <v>36.76336727918306</v>
@@ -34125,10 +34125,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H41" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J41" t="n">
         <v>154.7039162332532</v>
@@ -34152,19 +34152,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R41" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S41" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T41" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H42" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I42" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J42" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K42" t="n">
         <v>157.4829488288205</v>
@@ -34234,13 +34234,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R42" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S42" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T42" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U42" t="n">
         <v>0.06416177940713008</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H43" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I43" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J43" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K43" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L43" t="n">
         <v>121.5584529890336</v>
@@ -34307,10 +34307,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P43" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R43" t="n">
         <v>36.76336727918306</v>
@@ -34362,10 +34362,10 @@
         <v>1.822753398232705</v>
       </c>
       <c r="H44" t="n">
-        <v>18.6672732396507</v>
+        <v>18.66727323965069</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536642</v>
       </c>
       <c r="J44" t="n">
         <v>154.7039162332532</v>
@@ -34389,19 +34389,19 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.8368610334022</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R44" t="n">
-        <v>114.4985331517353</v>
+        <v>114.4985331517352</v>
       </c>
       <c r="S44" t="n">
-        <v>41.53599306222781</v>
+        <v>41.5359930622278</v>
       </c>
       <c r="T44" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763669</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1458202718586164</v>
+        <v>0.1458202718586163</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883767</v>
       </c>
       <c r="H45" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966693</v>
       </c>
       <c r="I45" t="n">
         <v>33.5779978897314</v>
       </c>
       <c r="J45" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K45" t="n">
         <v>157.4829488288205</v>
@@ -34471,13 +34471,13 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R45" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S45" t="n">
         <v>18.11500905261304</v>
       </c>
       <c r="T45" t="n">
-        <v>3.930978351676834</v>
+        <v>3.930978351676833</v>
       </c>
       <c r="U45" t="n">
         <v>0.06416177940713008</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203675</v>
       </c>
       <c r="H46" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582909</v>
       </c>
       <c r="I46" t="n">
         <v>24.58819631207797</v>
       </c>
       <c r="J46" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K46" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L46" t="n">
         <v>121.5584529890336</v>
@@ -34544,10 +34544,10 @@
         <v>115.5674958464898</v>
       </c>
       <c r="P46" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851423</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936823</v>
       </c>
       <c r="R46" t="n">
         <v>36.76336727918306</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J11" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K11" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L11" t="n">
         <v>287.6441568916078</v>
@@ -35424,13 +35424,13 @@
         <v>325.2384457301573</v>
       </c>
       <c r="O11" t="n">
-        <v>307.1134416264811</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P11" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.8368610334023</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R11" t="n">
         <v>114.498533151735</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J12" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K12" t="n">
         <v>157.4829488288205</v>
@@ -35497,13 +35497,13 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M12" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N12" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O12" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P12" t="n">
         <v>186.2317034551752</v>
@@ -35512,7 +35512,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R12" t="n">
-        <v>108.4004114675631</v>
+        <v>82.07346888124266</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K13" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L13" t="n">
         <v>543.992676997075</v>
       </c>
       <c r="M13" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="N13" t="n">
-        <v>336.396403955147</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O13" t="n">
-        <v>115.5674958464899</v>
+        <v>245.1070202334718</v>
       </c>
       <c r="P13" t="n">
         <v>98.88795759851428</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J14" t="n">
-        <v>154.7039162332533</v>
+        <v>154.7039162332532</v>
       </c>
       <c r="K14" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804435</v>
       </c>
       <c r="L14" t="n">
         <v>287.6441568916078</v>
       </c>
       <c r="M14" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374285</v>
       </c>
       <c r="N14" t="n">
         <v>325.2384457301573</v>
       </c>
       <c r="O14" t="n">
-        <v>307.1134416264811</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P14" t="n">
-        <v>262.114217107611</v>
+        <v>262.1142171076108</v>
       </c>
       <c r="Q14" t="n">
         <v>196.8368610334023</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>33.5779978897314</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J15" t="n">
-        <v>92.14059268059926</v>
+        <v>113.6624516093532</v>
       </c>
       <c r="K15" t="n">
         <v>157.4829488288205</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7552593033316</v>
+        <v>211.7552593033315</v>
       </c>
       <c r="M15" t="n">
-        <v>294.9572012717346</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N15" t="n">
-        <v>253.6486238042271</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O15" t="n">
         <v>232.0389364999055</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.80604677117</v>
+        <v>57.80604677116997</v>
       </c>
       <c r="K16" t="n">
-        <v>317.1480508209629</v>
+        <v>372.5268846570265</v>
       </c>
       <c r="L16" t="n">
-        <v>121.5584529890336</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M16" t="n">
         <v>128.1663449241718</v>
       </c>
       <c r="N16" t="n">
-        <v>571.844899503342</v>
+        <v>445.0489062757433</v>
       </c>
       <c r="O16" t="n">
         <v>539.4758283977842</v>
       </c>
       <c r="P16" t="n">
-        <v>449.9050222150211</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q16" t="n">
         <v>68.46489607936837</v>
       </c>
       <c r="R16" t="n">
-        <v>15.55972419750123</v>
+        <v>15.55972419750122</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J17" t="n">
         <v>154.7039162332532</v>
@@ -35889,13 +35889,13 @@
         <v>231.8610675804436</v>
       </c>
       <c r="L17" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916079</v>
       </c>
       <c r="M17" t="n">
-        <v>320.0595476374288</v>
+        <v>320.0595476374286</v>
       </c>
       <c r="N17" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O17" t="n">
         <v>307.1134416264808</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J18" t="n">
-        <v>92.14059268059926</v>
+        <v>113.6624516093531</v>
       </c>
       <c r="K18" t="n">
-        <v>205.3317503438949</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L18" t="n">
         <v>211.7552593033316</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N18" t="n">
-        <v>253.6486238042271</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O18" t="n">
         <v>232.0389364999055</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K19" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L19" t="n">
         <v>121.5584529890336</v>
       </c>
       <c r="M19" t="n">
-        <v>128.1663449241718</v>
+        <v>350.3213035842047</v>
       </c>
       <c r="N19" t="n">
-        <v>259.1201464460443</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O19" t="n">
         <v>539.4758283977842</v>
@@ -36062,7 +36062,7 @@
         <v>449.9050222150211</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.3565878615218</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R19" t="n">
         <v>15.55972419750123</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J20" t="n">
-        <v>154.7039162332533</v>
+        <v>154.7039162332532</v>
       </c>
       <c r="K20" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804439</v>
       </c>
       <c r="L20" t="n">
         <v>287.6441568916078</v>
       </c>
       <c r="M20" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N20" t="n">
         <v>325.2384457301573</v>
       </c>
       <c r="O20" t="n">
-        <v>307.1134416264811</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P20" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q20" t="n">
-        <v>196.8368610334023</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R20" t="n">
         <v>114.498533151735</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J21" t="n">
-        <v>92.14059268059926</v>
+        <v>113.6624516093531</v>
       </c>
       <c r="K21" t="n">
         <v>157.4829488288205</v>
@@ -36208,13 +36208,13 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M21" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N21" t="n">
         <v>253.648623804227</v>
       </c>
       <c r="O21" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P21" t="n">
         <v>186.2317034551752</v>
@@ -36223,7 +36223,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R21" t="n">
-        <v>108.4004114675631</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K22" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L22" t="n">
-        <v>121.5584529890336</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M22" t="n">
-        <v>573.2729523569824</v>
+        <v>278.9041441926701</v>
       </c>
       <c r="N22" t="n">
-        <v>125.1188357077415</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O22" t="n">
-        <v>228.3705317032764</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P22" t="n">
-        <v>449.9050222150211</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.3565878615218</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R22" t="n">
         <v>15.55972419750123</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J23" t="n">
-        <v>594.355115680645</v>
+        <v>154.7039162332532</v>
       </c>
       <c r="K23" t="n">
-        <v>502.5808254000464</v>
+        <v>1074.639140265472</v>
       </c>
       <c r="L23" t="n">
         <v>287.6441568916077</v>
@@ -36372,16 +36372,16 @@
         <v>325.2384457301575</v>
       </c>
       <c r="O23" t="n">
-        <v>307.1134416264808</v>
+        <v>897.5879935939524</v>
       </c>
       <c r="P23" t="n">
         <v>1098.790858353466</v>
       </c>
       <c r="Q23" t="n">
-        <v>748.8558367491542</v>
+        <v>196.8368610334019</v>
       </c>
       <c r="R23" t="n">
-        <v>285.3612248214895</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>33.57799788973141</v>
       </c>
       <c r="J24" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K24" t="n">
-        <v>205.3317503438948</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7552593033316</v>
+        <v>211.7552593033315</v>
       </c>
       <c r="M24" t="n">
         <v>247.1083997566602</v>
       </c>
       <c r="N24" t="n">
-        <v>253.6486238042271</v>
+        <v>253.6486238042269</v>
       </c>
       <c r="O24" t="n">
         <v>232.0389364999055</v>
@@ -36460,7 +36460,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R24" t="n">
-        <v>60.55160995248889</v>
+        <v>108.4004114675636</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>145.2602742102507</v>
       </c>
       <c r="K25" t="n">
-        <v>372.5268846570265</v>
+        <v>219.2315173520698</v>
       </c>
       <c r="L25" t="n">
-        <v>486.406308871212</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M25" t="n">
         <v>592.2914632887305</v>
       </c>
       <c r="N25" t="n">
-        <v>125.1188357077415</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O25" t="n">
-        <v>539.4758283977842</v>
+        <v>539.475828397784</v>
       </c>
       <c r="P25" t="n">
-        <v>449.9050222150208</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q25" t="n">
         <v>238.3565878615223</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J26" t="n">
-        <v>154.7039162332532</v>
+        <v>594.355115680645</v>
       </c>
       <c r="K26" t="n">
         <v>231.8610675804437</v>
       </c>
       <c r="L26" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M26" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N26" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O26" t="n">
-        <v>1146.545904713965</v>
+        <v>577.833199446083</v>
       </c>
       <c r="P26" t="n">
         <v>1098.790858353466</v>
       </c>
       <c r="Q26" t="n">
-        <v>748.8558367491546</v>
+        <v>748.8558367491542</v>
       </c>
       <c r="R26" t="n">
-        <v>156.2997190009992</v>
+        <v>285.3612248214895</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>33.57799788973141</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J27" t="n">
-        <v>92.14059268059927</v>
+        <v>113.6624516093531</v>
       </c>
       <c r="K27" t="n">
-        <v>157.4829488288205</v>
+        <v>157.4829488288204</v>
       </c>
       <c r="L27" t="n">
         <v>211.7552593033316</v>
       </c>
       <c r="M27" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N27" t="n">
         <v>253.648623804227</v>
       </c>
       <c r="O27" t="n">
-        <v>279.88773801498</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P27" t="n">
         <v>186.2317034551752</v>
@@ -36755,22 +36755,22 @@
         <v>145.2602742102507</v>
       </c>
       <c r="K28" t="n">
-        <v>219.2315173520697</v>
+        <v>372.5268846570265</v>
       </c>
       <c r="L28" t="n">
         <v>543.992676997075</v>
       </c>
       <c r="M28" t="n">
-        <v>592.2914632887305</v>
+        <v>128.1663449241719</v>
       </c>
       <c r="N28" t="n">
-        <v>571.844899503342</v>
+        <v>531.6575859464372</v>
       </c>
       <c r="O28" t="n">
-        <v>539.475828397784</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P28" t="n">
-        <v>98.88795759851428</v>
+        <v>449.9050222150208</v>
       </c>
       <c r="Q28" t="n">
         <v>238.3565878615223</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J29" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K29" t="n">
-        <v>231.8610675804437</v>
+        <v>1074.639140265472</v>
       </c>
       <c r="L29" t="n">
-        <v>998.0151141586023</v>
+        <v>326.0997331433273</v>
       </c>
       <c r="M29" t="n">
         <v>320.0595476374288</v>
       </c>
       <c r="N29" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O29" t="n">
         <v>307.1134416264808</v>
@@ -36855,7 +36855,7 @@
         <v>748.8558367491542</v>
       </c>
       <c r="R29" t="n">
-        <v>285.3612248214895</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>33.57799788973141</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J30" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K30" t="n">
         <v>157.4829488288205</v>
@@ -36919,10 +36919,10 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M30" t="n">
-        <v>294.9572012717346</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N30" t="n">
-        <v>253.6486238042271</v>
+        <v>253.6486238042269</v>
       </c>
       <c r="O30" t="n">
         <v>232.0389364999055</v>
@@ -36934,7 +36934,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R30" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124266</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>57.80604677116999</v>
+        <v>145.2602742102507</v>
       </c>
       <c r="K31" t="n">
         <v>372.5268846570265</v>
       </c>
       <c r="L31" t="n">
-        <v>127.1344725146921</v>
+        <v>121.5584529890335</v>
       </c>
       <c r="M31" t="n">
-        <v>592.2914632887305</v>
+        <v>592.2914632887306</v>
       </c>
       <c r="N31" t="n">
         <v>571.844899503342</v>
@@ -37007,7 +37007,7 @@
         <v>539.4758283977842</v>
       </c>
       <c r="P31" t="n">
-        <v>449.9050222150208</v>
+        <v>368.0268143015987</v>
       </c>
       <c r="Q31" t="n">
         <v>238.3565878615223</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J32" t="n">
-        <v>154.7039162332532</v>
+        <v>594.355115680645</v>
       </c>
       <c r="K32" t="n">
         <v>231.8610675804437</v>
       </c>
       <c r="L32" t="n">
-        <v>909.7796067296194</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M32" t="n">
-        <v>1146.545904713965</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N32" t="n">
-        <v>1146.545904713965</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O32" t="n">
-        <v>307.1134416264808</v>
+        <v>577.833199446083</v>
       </c>
       <c r="P32" t="n">
-        <v>262.1142171076108</v>
+        <v>1098.790858353466</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.8368610334019</v>
+        <v>748.8558367491542</v>
       </c>
       <c r="R32" t="n">
-        <v>114.4985331517355</v>
+        <v>285.3612248214895</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>33.57799788973141</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J33" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K33" t="n">
         <v>157.4829488288205</v>
@@ -37159,10 +37159,10 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N33" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042269</v>
       </c>
       <c r="O33" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P33" t="n">
         <v>186.2317034551752</v>
@@ -37171,7 +37171,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R33" t="n">
-        <v>108.4004114675631</v>
+        <v>82.07346888124266</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>145.2602742102507</v>
       </c>
       <c r="K34" t="n">
-        <v>94.99309216092996</v>
+        <v>372.5268846570265</v>
       </c>
       <c r="L34" t="n">
-        <v>543.992676997075</v>
+        <v>503.8053634401701</v>
       </c>
       <c r="M34" t="n">
-        <v>592.2914632887306</v>
+        <v>128.1663449241719</v>
       </c>
       <c r="N34" t="n">
         <v>571.844899503342</v>
@@ -37244,7 +37244,7 @@
         <v>539.4758283977842</v>
       </c>
       <c r="P34" t="n">
-        <v>223.1263827896537</v>
+        <v>449.9050222150208</v>
       </c>
       <c r="Q34" t="n">
         <v>238.3565878615223</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J35" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K35" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L35" t="n">
         <v>287.6441568916078</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N35" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O35" t="n">
         <v>307.1134416264808</v>
       </c>
       <c r="P35" t="n">
-        <v>262.1142171076115</v>
+        <v>262.114217107611</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334023</v>
       </c>
       <c r="R35" t="n">
         <v>114.498533151735</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>33.57799788973136</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J36" t="n">
-        <v>92.1405926805993</v>
+        <v>113.6624516093531</v>
       </c>
       <c r="K36" t="n">
-        <v>157.4829488288206</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7552593033315</v>
+        <v>211.7552593033316</v>
       </c>
       <c r="M36" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N36" t="n">
-        <v>253.6486238042271</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O36" t="n">
         <v>232.0389364999055</v>
@@ -37405,10 +37405,10 @@
         <v>186.2317034551752</v>
       </c>
       <c r="Q36" t="n">
-        <v>124.4909618576744</v>
+        <v>124.4909618576742</v>
       </c>
       <c r="R36" t="n">
-        <v>108.4004114675631</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,22 +37469,22 @@
         <v>372.5268846570265</v>
       </c>
       <c r="L37" t="n">
-        <v>543.992676997075</v>
+        <v>512.9056829485705</v>
       </c>
       <c r="M37" t="n">
-        <v>128.1663449241719</v>
+        <v>128.1663449241718</v>
       </c>
       <c r="N37" t="n">
-        <v>348.0484824283776</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O37" t="n">
-        <v>115.5674958464899</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P37" t="n">
         <v>449.9050222150211</v>
       </c>
       <c r="Q37" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R37" t="n">
         <v>15.55972419750123</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J38" t="n">
-        <v>154.7039162332532</v>
+        <v>154.7039162332535</v>
       </c>
       <c r="K38" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L38" t="n">
         <v>287.6441568916078</v>
       </c>
       <c r="M38" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N38" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O38" t="n">
         <v>307.1134416264808</v>
@@ -37566,7 +37566,7 @@
         <v>196.8368610334021</v>
       </c>
       <c r="R38" t="n">
-        <v>114.4985331517355</v>
+        <v>114.498533151735</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J39" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059924</v>
       </c>
       <c r="K39" t="n">
         <v>157.4829488288205</v>
@@ -37630,13 +37630,13 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M39" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N39" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O39" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P39" t="n">
         <v>186.2317034551752</v>
@@ -37645,7 +37645,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R39" t="n">
-        <v>108.4004114675631</v>
+        <v>82.07346888124266</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>57.80604677116998</v>
       </c>
       <c r="K40" t="n">
-        <v>126.0580841572929</v>
+        <v>94.99309216092995</v>
       </c>
       <c r="L40" t="n">
         <v>121.5584529890336</v>
       </c>
       <c r="M40" t="n">
-        <v>573.2729523569826</v>
+        <v>531.4466764185581</v>
       </c>
       <c r="N40" t="n">
         <v>571.844899503342</v>
       </c>
       <c r="O40" t="n">
-        <v>115.5674958464899</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P40" t="n">
-        <v>449.9050222150211</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q40" t="n">
-        <v>238.3565878615223</v>
+        <v>238.3565878615218</v>
       </c>
       <c r="R40" t="n">
         <v>15.55972419750123</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J41" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K41" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L41" t="n">
         <v>287.6441568916078</v>
@@ -37794,13 +37794,13 @@
         <v>325.2384457301573</v>
       </c>
       <c r="O41" t="n">
-        <v>307.1134416264811</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P41" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.8368610334023</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R41" t="n">
         <v>114.498533151735</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605221</v>
       </c>
       <c r="J42" t="n">
-        <v>139.9893941956736</v>
+        <v>113.6624516093531</v>
       </c>
       <c r="K42" t="n">
         <v>157.4829488288205</v>
@@ -37867,10 +37867,10 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M42" t="n">
-        <v>247.1083997566602</v>
+        <v>247.1083997566601</v>
       </c>
       <c r="N42" t="n">
-        <v>253.6486238042271</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O42" t="n">
         <v>232.0389364999055</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K43" t="n">
         <v>372.5268846570265</v>
@@ -37946,10 +37946,10 @@
         <v>121.5584529890336</v>
       </c>
       <c r="M43" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="N43" t="n">
-        <v>334.9222954118941</v>
+        <v>422.3765228509744</v>
       </c>
       <c r="O43" t="n">
         <v>539.4758283977842</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623501</v>
       </c>
       <c r="J44" t="n">
-        <v>154.7039162332535</v>
+        <v>154.7039162332533</v>
       </c>
       <c r="K44" t="n">
-        <v>231.8610675804437</v>
+        <v>231.8610675804436</v>
       </c>
       <c r="L44" t="n">
-        <v>287.6441568916077</v>
+        <v>287.6441568916078</v>
       </c>
       <c r="M44" t="n">
         <v>320.0595476374285</v>
       </c>
       <c r="N44" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O44" t="n">
-        <v>307.1134416264808</v>
+        <v>307.1134416264811</v>
       </c>
       <c r="P44" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334023</v>
       </c>
       <c r="R44" t="n">
-        <v>114.4985331517355</v>
+        <v>114.498533151735</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>33.5779978897314</v>
       </c>
       <c r="J45" t="n">
-        <v>92.14059268059927</v>
+        <v>92.14059268059923</v>
       </c>
       <c r="K45" t="n">
-        <v>157.4829488288205</v>
+        <v>157.4829488288204</v>
       </c>
       <c r="L45" t="n">
         <v>211.7552593033316</v>
@@ -38107,10 +38107,10 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N45" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042269</v>
       </c>
       <c r="O45" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P45" t="n">
         <v>186.2317034551752</v>
@@ -38119,7 +38119,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R45" t="n">
-        <v>108.4004114675631</v>
+        <v>108.4004114675636</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677116998</v>
       </c>
       <c r="K46" t="n">
         <v>372.5268846570265</v>
       </c>
       <c r="L46" t="n">
-        <v>543.992676997075</v>
+        <v>121.5584529890336</v>
       </c>
       <c r="M46" t="n">
-        <v>128.1663449241719</v>
+        <v>128.1663449241718</v>
       </c>
       <c r="N46" t="n">
-        <v>260.594254989297</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O46" t="n">
-        <v>115.5674958464899</v>
+        <v>314.2053027795671</v>
       </c>
       <c r="P46" t="n">
         <v>449.9050222150211</v>
       </c>
       <c r="Q46" t="n">
-        <v>238.3565878615223</v>
+        <v>238.3565878615218</v>
       </c>
       <c r="R46" t="n">
         <v>15.55972419750123</v>
